--- a/Test_File.xlsx
+++ b/Test_File.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,25 +430,36 @@
           <t>Date</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Account Balance</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44640</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>44635</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>44652</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>44671</v>
+        <v>44621</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Initial Balance</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Test_File.xlsx
+++ b/Test_File.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,6 +462,86 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>44631</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Paycheck</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1350</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>44640</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pizza</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>-30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>44645</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Paycheck</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1350</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>44659</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Paycheck</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1350</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>44673</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Paycheck</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1350</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5370</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Test_File.xlsx
+++ b/Test_File.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44621</v>
+        <v>44668</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -456,63 +456,63 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1146.45</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1146.45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44631</v>
+        <v>44668</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paycheck</t>
+          <t>Groceries</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1350</v>
+        <v>-150</v>
       </c>
       <c r="D3" t="n">
-        <v>1350</v>
+        <v>996.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44640</v>
+        <v>44668</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pizza</t>
+          <t>Delivery</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-30</v>
+        <v>-62.5</v>
       </c>
       <c r="D4" t="n">
-        <v>1320</v>
+        <v>933.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44645</v>
+        <v>44673</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Paycheck</t>
+          <t>HBO Max</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1350</v>
+        <v>-16.22</v>
       </c>
       <c r="D5" t="n">
-        <v>2670</v>
+        <v>917.73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44659</v>
+        <v>44673</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -520,26 +520,2170 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1350</v>
+        <v>1379.43</v>
       </c>
       <c r="D6" t="n">
-        <v>4020</v>
+        <v>2297.16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44673</v>
+        <v>44675</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>PBS Kids</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>-5.4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2291.76</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>44675</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>-150</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2141.76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>44675</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2079.26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>44676</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Netlfix</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>-15.49</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2063.77</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>44676</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>-292.22</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1771.55</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>44676</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>-450</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1321.55</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>44679</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Disney Plus</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>-8.65</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1312.9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>44679</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>-88.15000000000001</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1224.75</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>44681</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>-30</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1194.75</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>44682</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Patreon</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1189.75</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>44682</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>-150</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1039.75</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>44682</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>977.25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>44683</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FF 2</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>-14.99</v>
+      </c>
+      <c r="D19" t="n">
+        <v>962.26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>44684</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Gymnastics</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>-69</v>
+      </c>
+      <c r="D20" t="n">
+        <v>893.26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>44684</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Counseling</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>-180</v>
+      </c>
+      <c r="D21" t="n">
+        <v>713.26</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>44685</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Parent Gift</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>410</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1123.26</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>44686</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Mortgage</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-1017.91</v>
+      </c>
+      <c r="D23" t="n">
+        <v>105.35</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>44687</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Dog Food</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-80</v>
+      </c>
+      <c r="D24" t="n">
+        <v>25.35</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>44687</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>Paycheck</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>1350</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5370</v>
+      <c r="C25" t="n">
+        <v>1379.43</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1404.78</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-150</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1254.78</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>44689</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1192.28</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>44691</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>WoW 1</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-14.99</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1177.29</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>44692</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>WoW 2</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-14.99</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1162.3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>44693</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Pandora</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-10.81</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1151.49</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>44695</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-30</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1121.49</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>44696</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>-150</v>
+      </c>
+      <c r="D32" t="n">
+        <v>971.49</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>44696</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>908.99</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>44697</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>FF 1</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>-14.99</v>
+      </c>
+      <c r="D34" t="n">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>44701</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Paycheck</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1379.43</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2273.43</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>44703</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>HBO Max</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>-16.22</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2257.21</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>44703</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>-150</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2107.21</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>44703</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2044.71</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>44705</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>PBS Kids</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>-5.4</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2039.31</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>44706</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Netlfix</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>-15.49</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2023.82</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>44706</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>-292.22</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1731.6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>44706</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>-450</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1281.6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>44709</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Disney Plus</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>-8.65</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1272.95</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>44709</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>-88.15000000000001</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1184.8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44709</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>-30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1154.8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44710</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>-150</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1004.8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>44710</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="D47" t="n">
+        <v>942.3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Patreon</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D48" t="n">
+        <v>937.3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>FF 2</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>-14.99</v>
+      </c>
+      <c r="D49" t="n">
+        <v>922.3099999999999</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>44715</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Gymnastics</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>-69</v>
+      </c>
+      <c r="D50" t="n">
+        <v>853.3099999999999</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>44715</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Counseling</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>-180</v>
+      </c>
+      <c r="D51" t="n">
+        <v>673.3099999999999</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>44715</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Paycheck</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1379.43</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2052.74</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>44716</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Parent Gift</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>410</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2462.74</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>44717</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Mortgage</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>-1017.91</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1444.83</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>44717</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>-150</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1294.83</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>44717</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1232.33</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Dog Food</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>-80</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1152.33</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>WoW 1</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>-14.99</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1137.34</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>44723</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>WoW 2</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>-14.99</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1122.35</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>44723</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>-30</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1092.35</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>44724</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Pandora</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>-10.81</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1081.54</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>44724</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>-150</v>
+      </c>
+      <c r="D62" t="n">
+        <v>931.54</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>44724</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="D63" t="n">
+        <v>869.04</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>FF 1</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>-14.99</v>
+      </c>
+      <c r="D64" t="n">
+        <v>854.05</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Paycheck</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1379.43</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2233.48</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>44731</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>-150</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2083.48</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>44731</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2020.98</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>HBO Max</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>-16.22</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2004.76</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>PBS Kids</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>-5.4</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1999.36</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Netlfix</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>-15.49</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1983.87</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>-292.22</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1691.65</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>-450</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1241.65</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>44737</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>-30</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1211.65</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>44738</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>-150</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1061.65</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>44738</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="D75" t="n">
+        <v>999.15</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Disney Plus</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>-8.65</v>
+      </c>
+      <c r="D76" t="n">
+        <v>990.5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>-88.15000000000001</v>
+      </c>
+      <c r="D77" t="n">
+        <v>902.35</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Patreon</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D78" t="n">
+        <v>897.35</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Paycheck</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1379.43</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2276.78</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>44744</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>FF 2</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>-14.99</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2261.79</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>44745</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>-150</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2111.79</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>44745</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2049.29</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>44745</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Gymnastics</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>-69</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1980.29</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>44745</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Counseling</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>-180</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1800.29</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Trash Service</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>-94.26000000000001</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1706.03</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Parent Gift</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>410</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2116.03</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>44747</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Mortgage</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>-1017.91</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1098.12</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>44748</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Dog Food</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>-80</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1018.12</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>44751</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>-30</v>
+      </c>
+      <c r="D89" t="n">
+        <v>988.12</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>44752</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>WoW 1</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>-14.99</v>
+      </c>
+      <c r="D90" t="n">
+        <v>973.13</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>44752</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>-150</v>
+      </c>
+      <c r="D91" t="n">
+        <v>823.13</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>44752</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="D92" t="n">
+        <v>760.63</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>44753</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>WoW 2</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>-14.99</v>
+      </c>
+      <c r="D93" t="n">
+        <v>745.64</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>44754</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Pandora</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>-10.81</v>
+      </c>
+      <c r="D94" t="n">
+        <v>734.83</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Paycheck</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>1379.43</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2114.26</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>44758</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>FF 1</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>-14.99</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2099.27</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>44759</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>-150</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1949.27</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>44759</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1886.77</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>HBO Max</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>-16.22</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1870.55</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>44765</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>-30</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1840.55</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>44766</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>PBS Kids</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>-5.4</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1835.15</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>44766</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>-150</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1685.15</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>44766</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1622.65</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>44767</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Netlfix</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>-15.49</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1607.16</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>44767</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>-292.22</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1314.94</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>44767</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>-450</v>
+      </c>
+      <c r="D106" t="n">
+        <v>864.9400000000001</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>44770</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Disney Plus</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>-8.65</v>
+      </c>
+      <c r="D107" t="n">
+        <v>856.29</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>44770</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>-88.15000000000001</v>
+      </c>
+      <c r="D108" t="n">
+        <v>768.14</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Paycheck</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>1379.43</v>
+      </c>
+      <c r="D109" t="n">
+        <v>2147.57</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>44773</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>-150</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1997.57</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>44773</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1935.07</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Patreon</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1930.07</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>44775</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>FF 2</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>-14.99</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1915.08</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Gymnastics</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>-69</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1846.08</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Counseling</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>-180</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1666.08</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>44777</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Parent Gift</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>410</v>
+      </c>
+      <c r="D116" t="n">
+        <v>2076.08</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>44778</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Mortgage</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>-1017.91</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1058.17</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>44779</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>-30</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1028.17</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>44779</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Dog Food</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>-80</v>
+      </c>
+      <c r="D119" t="n">
+        <v>948.17</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>44780</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>-150</v>
+      </c>
+      <c r="D120" t="n">
+        <v>798.17</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>44780</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="D121" t="n">
+        <v>735.67</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>44783</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>WoW 1</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>-14.99</v>
+      </c>
+      <c r="D122" t="n">
+        <v>720.6799999999999</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>44784</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>WoW 2</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>-14.99</v>
+      </c>
+      <c r="D123" t="n">
+        <v>705.6900000000001</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>44785</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Pandora</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>-10.81</v>
+      </c>
+      <c r="D124" t="n">
+        <v>694.88</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>44785</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Paycheck</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>1379.43</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2074.31</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>44787</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>-150</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1924.31</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>44787</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1861.81</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>44789</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>FF 1</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>-14.99</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1846.82</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>44793</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>-30</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1816.82</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>44794</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>-150</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1666.82</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>44794</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1604.32</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>44795</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>HBO Max</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>-16.22</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1588.1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>44797</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>PBS Kids</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>-5.4</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1582.7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>44798</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Netlfix</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>-15.49</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1567.21</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>44798</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>-292.22</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1274.99</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>44798</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>-450</v>
+      </c>
+      <c r="D136" t="n">
+        <v>824.99</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>44799</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Paycheck</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1379.43</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2204.42</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>44801</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Disney Plus</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>-8.65</v>
+      </c>
+      <c r="D138" t="n">
+        <v>2195.77</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>44801</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>-88.15000000000001</v>
+      </c>
+      <c r="D139" t="n">
+        <v>2107.62</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>44801</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>-150</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1957.62</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>44801</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>-62.5</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1895.12</v>
       </c>
     </row>
   </sheetData>
